--- a/02.mykidlist/extracted_data/02.Data.xlsx
+++ b/02.mykidlist/extracted_data/02.Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Upwork\Task01\Multiple_Directories_Web_scraping\02.mykidlist\extracted_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5173CD99-825A-467C-8119-FD28B59A118B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADED86C-2975-4E9E-8D67-20CED62AB74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02.mykidlistDatacsv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="135">
   <si>
     <t>name</t>
   </si>
@@ -160,9 +160,6 @@
     <t>https://hauntedtrailsfun.com/</t>
   </si>
   <si>
-    <t>Trails Entertainment Centers Enchanted Castle Lombard | Haunted Trails Joliet | Haunted Trails Burbank</t>
-  </si>
-  <si>
     <t>Trails Entertainment Centers offers three amazing venues – Enchanted Castle Family Entertainment Center in Lombard – a 60000 square foot all-indoor fun center; and two Haunted Trails Family Entertainment Centers located in Burbank and Joliet; which feature both indoor and outdoor attractions. Each location offers a unique variety of games; miniature golf; go-karts; amusement rides; and other special attractions. Discounted rates are available for birthday parties; group outings; and corporate picnics &amp; events. For more information visit trailsfunparks.com.</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>460 S Weber Road Romeoville, IL 60446</t>
   </si>
   <si>
-    <t>This spot in Romeoville has pay-as-you-go attractions including arcade games; laser tag; go-karts; an indoor roller coaster; bumper cars; a drop tower; mini golf; and inflatables. Check out Katie’s review of Scene75.</t>
-  </si>
-  <si>
     <t>Enterrium</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
     <t>https://www.mainevent.com/locations/warrenville-il</t>
   </si>
   <si>
-    <t>2575 Pratum Avenue Hoffman Estates, IL 60192 28248 W Diehl Road Warrenville, IL 60555</t>
-  </si>
-  <si>
     <t>Locations offer bowling; multi-level laser tag; billiards; virtual reality; and arcade games. Amenities may vary by location.</t>
   </si>
   <si>
@@ -373,9 +364,6 @@
     <t>https://www.bowlero.com/location/bowlero-woodridge/features</t>
   </si>
   <si>
-    <t>1515 Aurora Avenue Naperville, IL 60540 1555 75th Street Woodridge, IL 60517</t>
-  </si>
-  <si>
     <t>Bowling; plus an arcade area with games and billards.</t>
   </si>
   <si>
@@ -385,16 +373,64 @@
     <t>https://www.chuckecheese.com/</t>
   </si>
   <si>
-    <t>511 N. Randall Road Batavia, IL 60510 7409 Cass Avenue Darien, IL 60561 1030 Winston Plaza Melrose Park, IL 60160 506 South Route 59 Naperville, IL 60540 1000C S. Barrington Road Streamwood, IL 60107 200 W. Roosevelt Road Villa Park, IL 60181</t>
-  </si>
-  <si>
     <t>Food; games; and prizes at this classic kids’ entertainment option.</t>
+  </si>
+  <si>
+    <t>7759 S. Harlem Avenue, Burbank, IL 60459</t>
+  </si>
+  <si>
+    <t>1103 S Main Street Lombard, IL 60148</t>
+  </si>
+  <si>
+    <t>1423 N. Broadway (Rt. 53) Joliet, IL 60435</t>
+  </si>
+  <si>
+    <t>This spot in Romeoville has pay-as-you-go attractions including arcade games; laser tag; go-karts; an indoor roller coaster; bumper cars; a</t>
+  </si>
+  <si>
+    <t>drop tower; mini golf; and inflatables. Check out Katie’s review of Scene75.</t>
+  </si>
+  <si>
+    <t>511 N. Randall Road Batavia, IL 60510</t>
+  </si>
+  <si>
+    <t>7409 Cass Avenue Darien, IL 60561</t>
+  </si>
+  <si>
+    <t>1030 Winston Plaza Melrose Park, IL 60160</t>
+  </si>
+  <si>
+    <t>506 South Route 59 Naperville, IL 60540</t>
+  </si>
+  <si>
+    <t>1000C S. Barrington Road Streamwood, IL 60107</t>
+  </si>
+  <si>
+    <t>200 W. Roosevelt Road Villa Park, IL 60181</t>
+  </si>
+  <si>
+    <t>1515 Aurora Avenue Naperville</t>
+  </si>
+  <si>
+    <t>IL 60540 1555 75th Street Woodridge</t>
+  </si>
+  <si>
+    <t>IL 60517</t>
+  </si>
+  <si>
+    <t>2575 Pratum Avenue Hoffman Estates</t>
+  </si>
+  <si>
+    <t>IL 60192 28248 W Diehl Road Warrenville</t>
+  </si>
+  <si>
+    <t>IL 60555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1248,11 +1284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1452,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1424,276 +1460,334 @@
         <v>45</v>
       </c>
       <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
       <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
       <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
